--- a/rawData/KlausurPunkte.xlsx
+++ b/rawData/KlausurPunkte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uli/DokumenteArbeit/FHDW/02_AdvDBS/Material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\URS\FHDWsync\02_AdvDBS\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFC05D4-01C9-FA47-8E6D-E907969C5AAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B608177B-C5B2-48D9-91AC-3F1B1A980104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22380" yWindow="13500" windowWidth="25240" windowHeight="13860" xr2:uid="{7E609171-CCB7-BA49-B344-CEAE05EE6D23}"/>
+    <workbookView xWindow="983" yWindow="-98" windowWidth="21614" windowHeight="15196" xr2:uid="{7E609171-CCB7-BA49-B344-CEAE05EE6D23}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Klausurergebnisse</t>
   </si>
@@ -741,17 +741,50 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="25.9" thickBot="1" x14ac:dyDescent="0.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
@@ -759,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -803,7 +836,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -822,7 +855,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -866,7 +899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -910,7 +943,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
@@ -954,7 +987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
@@ -998,7 +1031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1086,7 +1119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1130,7 +1163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
@@ -1218,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1289,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1332,7 +1365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1370,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="11" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1517,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="11" t="s">
         <v>31</v>
       </c>
@@ -1522,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="11" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +1593,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1631,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="11" t="s">
         <v>35</v>
       </c>
@@ -1674,7 +1707,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="11" t="s">
         <v>36</v>
       </c>
@@ -1712,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="11" t="s">
         <v>37</v>
       </c>
@@ -1750,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="11" t="s">
         <v>38</v>
       </c>
@@ -1788,7 +1821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="11" t="s">
         <v>39</v>
       </c>
@@ -1826,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="11" t="s">
         <v>40</v>
       </c>
@@ -1864,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="11" t="s">
         <v>41</v>
       </c>
@@ -1902,7 +1935,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -1940,7 +1973,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1978,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="11" t="s">
         <v>44</v>
       </c>
@@ -2016,7 +2049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="11" t="s">
         <v>45</v>
       </c>
@@ -2054,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="11" t="s">
         <v>46</v>
       </c>
@@ -2092,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
@@ -2130,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="11" t="s">
         <v>48</v>
       </c>
@@ -2168,7 +2201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="11" t="s">
         <v>49</v>
       </c>
@@ -2206,7 +2239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
@@ -2244,7 +2277,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="11" t="s">
         <v>51</v>
       </c>
@@ -2282,7 +2315,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="11" t="s">
         <v>52</v>
       </c>
